--- a/results table/resumed results.xlsx
+++ b/results table/resumed results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>No Technique</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -463,24 +463,92 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.97 ± nan</t>
+          <t>0.78 ± 0.01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>No Technique</t>
+          <t>ICA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Naive Bayes</t>
+          <t>GradientBoost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1.0 ± nan</t>
+          <t>0.82 ± 0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ICA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.71 ± 0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Custom AI Model</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.8 ± 0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>GradientBoost</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0.84 ± 0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PCA</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>LogReg</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0.71 ± 0.01</t>
         </is>
       </c>
     </row>
